--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Подробное описание</t>
   </si>
@@ -64,18 +64,56 @@
   </si>
   <si>
     <t>minor</t>
+  </si>
+  <si>
+    <t>US001</t>
+  </si>
+  <si>
+    <t>Не удаляется добавленный товар из корзины</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Добавить товар "Fahrenheit 451 by Ray Bradbury"
+2. Перейти в shopping card
+3. В колонке Remove нажать на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Х</t>
+    </r>
+  </si>
+  <si>
+    <t>Товар не удаляется</t>
+  </si>
+  <si>
+    <t>Товар удален. Корзина пустая</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -255,53 +293,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,254 +623,268 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="3"/>
-    <col min="3" max="3" width="29" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="3"/>
-    <col min="6" max="6" width="12.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="3"/>
-    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="32.28515625" style="3"/>
+    <col min="1" max="1" width="14" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="2"/>
+    <col min="3" max="3" width="29" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" style="2"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="2"/>
+    <col min="9" max="9" width="16.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:194" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:194" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="8"/>
-      <c r="CI2" s="8"/>
-      <c r="CJ2" s="8"/>
-      <c r="CK2" s="8"/>
-      <c r="CL2" s="8"/>
-      <c r="CM2" s="8"/>
-      <c r="CN2" s="8"/>
-      <c r="CO2" s="8"/>
-      <c r="CP2" s="8"/>
-      <c r="CQ2" s="8"/>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8"/>
-      <c r="CT2" s="8"/>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8"/>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="8"/>
-      <c r="CY2" s="8"/>
-      <c r="CZ2" s="8"/>
-      <c r="DA2" s="8"/>
-      <c r="DB2" s="8"/>
-      <c r="DC2" s="8"/>
-      <c r="DD2" s="8"/>
-      <c r="DE2" s="8"/>
-      <c r="DF2" s="8"/>
-      <c r="DG2" s="8"/>
-      <c r="DH2" s="8"/>
-      <c r="DI2" s="8"/>
-      <c r="DJ2" s="8"/>
-      <c r="DK2" s="8"/>
-      <c r="DL2" s="8"/>
-      <c r="DM2" s="8"/>
-      <c r="DN2" s="8"/>
-      <c r="DO2" s="8"/>
-      <c r="DP2" s="8"/>
-      <c r="DQ2" s="8"/>
-      <c r="DR2" s="8"/>
-      <c r="DS2" s="8"/>
-      <c r="DT2" s="8"/>
-      <c r="DU2" s="8"/>
-      <c r="DV2" s="8"/>
-      <c r="DW2" s="8"/>
-      <c r="DX2" s="8"/>
-      <c r="DY2" s="8"/>
-      <c r="DZ2" s="8"/>
-      <c r="EA2" s="8"/>
-      <c r="EB2" s="8"/>
-      <c r="EC2" s="8"/>
-      <c r="ED2" s="8"/>
-      <c r="EE2" s="8"/>
-      <c r="EF2" s="8"/>
-      <c r="EG2" s="8"/>
-      <c r="EH2" s="8"/>
-      <c r="EI2" s="8"/>
-      <c r="EJ2" s="8"/>
-      <c r="EK2" s="8"/>
-      <c r="EL2" s="8"/>
-      <c r="EM2" s="8"/>
-      <c r="EN2" s="8"/>
-      <c r="EO2" s="8"/>
-      <c r="EP2" s="8"/>
-      <c r="EQ2" s="8"/>
-      <c r="ER2" s="8"/>
-      <c r="ES2" s="8"/>
-      <c r="ET2" s="8"/>
-      <c r="EU2" s="8"/>
-      <c r="EV2" s="8"/>
-      <c r="EW2" s="8"/>
-      <c r="EX2" s="8"/>
-      <c r="EY2" s="8"/>
-      <c r="EZ2" s="8"/>
-      <c r="FA2" s="8"/>
-      <c r="FB2" s="8"/>
-      <c r="FC2" s="8"/>
-      <c r="FD2" s="8"/>
-      <c r="FE2" s="8"/>
-      <c r="FF2" s="8"/>
-      <c r="FG2" s="8"/>
-      <c r="FH2" s="8"/>
-      <c r="FI2" s="8"/>
-      <c r="FJ2" s="8"/>
-      <c r="FK2" s="8"/>
-      <c r="FL2" s="8"/>
-      <c r="FM2" s="8"/>
-      <c r="FN2" s="8"/>
-      <c r="FO2" s="8"/>
-      <c r="FP2" s="8"/>
-      <c r="FQ2" s="8"/>
-      <c r="FR2" s="8"/>
-      <c r="FS2" s="8"/>
-      <c r="FT2" s="8"/>
-      <c r="FU2" s="8"/>
-      <c r="FV2" s="8"/>
-      <c r="FW2" s="8"/>
-      <c r="FX2" s="8"/>
-      <c r="FY2" s="8"/>
-      <c r="FZ2" s="8"/>
-      <c r="GA2" s="8"/>
-      <c r="GB2" s="8"/>
-      <c r="GC2" s="8"/>
-      <c r="GD2" s="8"/>
-      <c r="GE2" s="8"/>
-      <c r="GF2" s="8"/>
-      <c r="GG2" s="8"/>
-      <c r="GH2" s="8"/>
-      <c r="GI2" s="8"/>
-      <c r="GJ2" s="8"/>
-      <c r="GK2" s="8"/>
-      <c r="GL2" s="8"/>
-    </row>
-    <row r="3" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7"/>
+      <c r="CB2" s="7"/>
+      <c r="CC2" s="7"/>
+      <c r="CD2" s="7"/>
+      <c r="CE2" s="7"/>
+      <c r="CF2" s="7"/>
+      <c r="CG2" s="7"/>
+      <c r="CH2" s="7"/>
+      <c r="CI2" s="7"/>
+      <c r="CJ2" s="7"/>
+      <c r="CK2" s="7"/>
+      <c r="CL2" s="7"/>
+      <c r="CM2" s="7"/>
+      <c r="CN2" s="7"/>
+      <c r="CO2" s="7"/>
+      <c r="CP2" s="7"/>
+      <c r="CQ2" s="7"/>
+      <c r="CR2" s="7"/>
+      <c r="CS2" s="7"/>
+      <c r="CT2" s="7"/>
+      <c r="CU2" s="7"/>
+      <c r="CV2" s="7"/>
+      <c r="CW2" s="7"/>
+      <c r="CX2" s="7"/>
+      <c r="CY2" s="7"/>
+      <c r="CZ2" s="7"/>
+      <c r="DA2" s="7"/>
+      <c r="DB2" s="7"/>
+      <c r="DC2" s="7"/>
+      <c r="DD2" s="7"/>
+      <c r="DE2" s="7"/>
+      <c r="DF2" s="7"/>
+      <c r="DG2" s="7"/>
+      <c r="DH2" s="7"/>
+      <c r="DI2" s="7"/>
+      <c r="DJ2" s="7"/>
+      <c r="DK2" s="7"/>
+      <c r="DL2" s="7"/>
+      <c r="DM2" s="7"/>
+      <c r="DN2" s="7"/>
+      <c r="DO2" s="7"/>
+      <c r="DP2" s="7"/>
+      <c r="DQ2" s="7"/>
+      <c r="DR2" s="7"/>
+      <c r="DS2" s="7"/>
+      <c r="DT2" s="7"/>
+      <c r="DU2" s="7"/>
+      <c r="DV2" s="7"/>
+      <c r="DW2" s="7"/>
+      <c r="DX2" s="7"/>
+      <c r="DY2" s="7"/>
+      <c r="DZ2" s="7"/>
+      <c r="EA2" s="7"/>
+      <c r="EB2" s="7"/>
+      <c r="EC2" s="7"/>
+      <c r="ED2" s="7"/>
+      <c r="EE2" s="7"/>
+      <c r="EF2" s="7"/>
+      <c r="EG2" s="7"/>
+      <c r="EH2" s="7"/>
+      <c r="EI2" s="7"/>
+      <c r="EJ2" s="7"/>
+      <c r="EK2" s="7"/>
+      <c r="EL2" s="7"/>
+      <c r="EM2" s="7"/>
+      <c r="EN2" s="7"/>
+      <c r="EO2" s="7"/>
+      <c r="EP2" s="7"/>
+      <c r="EQ2" s="7"/>
+      <c r="ER2" s="7"/>
+      <c r="ES2" s="7"/>
+      <c r="ET2" s="7"/>
+      <c r="EU2" s="7"/>
+      <c r="EV2" s="7"/>
+      <c r="EW2" s="7"/>
+      <c r="EX2" s="7"/>
+      <c r="EY2" s="7"/>
+      <c r="EZ2" s="7"/>
+      <c r="FA2" s="7"/>
+      <c r="FB2" s="7"/>
+      <c r="FC2" s="7"/>
+      <c r="FD2" s="7"/>
+      <c r="FE2" s="7"/>
+      <c r="FF2" s="7"/>
+      <c r="FG2" s="7"/>
+      <c r="FH2" s="7"/>
+      <c r="FI2" s="7"/>
+      <c r="FJ2" s="7"/>
+      <c r="FK2" s="7"/>
+      <c r="FL2" s="7"/>
+      <c r="FM2" s="7"/>
+      <c r="FN2" s="7"/>
+      <c r="FO2" s="7"/>
+      <c r="FP2" s="7"/>
+      <c r="FQ2" s="7"/>
+      <c r="FR2" s="7"/>
+      <c r="FS2" s="7"/>
+      <c r="FT2" s="7"/>
+      <c r="FU2" s="7"/>
+      <c r="FV2" s="7"/>
+      <c r="FW2" s="7"/>
+      <c r="FX2" s="7"/>
+      <c r="FY2" s="7"/>
+      <c r="FZ2" s="7"/>
+      <c r="GA2" s="7"/>
+      <c r="GB2" s="7"/>
+      <c r="GC2" s="7"/>
+      <c r="GD2" s="7"/>
+      <c r="GE2" s="7"/>
+      <c r="GF2" s="7"/>
+      <c r="GG2" s="7"/>
+      <c r="GH2" s="7"/>
+      <c r="GI2" s="7"/>
+      <c r="GJ2" s="7"/>
+      <c r="GK2" s="7"/>
+      <c r="GL2" s="7"/>
+    </row>
+    <row r="3" spans="1:194" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -851,10 +903,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -866,10 +918,10 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -881,10 +933,10 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -896,10 +948,10 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -911,10 +963,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -933,8 +985,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -944,8 +996,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -955,8 +1007,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1494,5 +1546,6 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -27,9 +27,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Samory</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Товар удален. Корзина пустая</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:GL72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,22 +658,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -865,25 +865,25 @@
     </row>
     <row r="3" spans="1:194" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -904,10 +904,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="I5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:194" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="I6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:194" x14ac:dyDescent="0.25">
@@ -934,10 +934,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="I7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:194" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="I9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="15"/>
     </row>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Подробное описание</t>
   </si>
@@ -94,6 +94,22 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>US002</t>
+  </si>
+  <si>
+    <t>Не указаны обязательные поля при регистрации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти во вкладку Register 
+2. Заполнить все поля </t>
+  </si>
+  <si>
+    <t>Регистрация не прошла, обязательные поля не обозначенны, ошибка регистрации не понятна</t>
+  </si>
+  <si>
+    <t>На обязательных полях указана предупреждающая подпись</t>
   </si>
 </sst>
 </file>
@@ -623,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,14 +902,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+    <row r="4" spans="1:194" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
-  <si>
-    <t>Подробное описание</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>US001</t>
-  </si>
-  <si>
-    <t>Не удаляется добавленный товар из корзины</t>
   </si>
   <si>
     <r>
@@ -99,17 +93,42 @@
     <t>US002</t>
   </si>
   <si>
-    <t>Не указаны обязательные поля при регистрации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Зайти во вкладку Register 
-2. Заполнить все поля </t>
-  </si>
-  <si>
     <t>Регистрация не прошла, обязательные поля не обозначенны, ошибка регистрации не понятна</t>
   </si>
   <si>
     <t>На обязательных полях указана предупреждающая подпись</t>
+  </si>
+  <si>
+    <t>1. Зайти во вкладку Register 
+2. Установить радиобатон на Female
+ 2. Поле "First name" оставить пустым
+3. в поле "Last name" ввести фамилию "Mitrofanova"
+4. выбрать из выпадающего списка "day" -5, "Month" - September", "Year" - 1989
+5. Email: 050989mya@gmail.com
+6. "Password" - 1234567
+7. "Confirm password" - 1234567</t>
+  </si>
+  <si>
+    <t>US003</t>
+  </si>
+  <si>
+    <t>1. В поле выбора валюты выбрать euro
+2. Цена на товар Nikon D 5500 DSLR отображается в US Dollar</t>
+  </si>
+  <si>
+    <t>Стоимость Nikon D 5500 равна 576.20 euro, при переводе на US Dollar цена 576.20 $ вместо 630 $</t>
+  </si>
+  <si>
+    <t>Стоимость Nikon D 5500 равна 576.20 euro, при переводе на US Dollar цена 630 $</t>
+  </si>
+  <si>
+    <t>The added product is not deleted from the basket</t>
+  </si>
+  <si>
+    <t>Required fields are not specified during registration</t>
+  </si>
+  <si>
+    <t>Incorrect display of the price when changing the currency</t>
   </si>
 </sst>
 </file>
@@ -304,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,12 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -354,8 +367,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GL72"/>
+  <dimension ref="A1:GL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,271 +684,289 @@
     <col min="11" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="17" t="s">
+    <row r="1" spans="1:194" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:194" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+      <c r="CX1" s="7"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="7"/>
+      <c r="DA1" s="7"/>
+      <c r="DB1" s="7"/>
+      <c r="DC1" s="7"/>
+      <c r="DD1" s="7"/>
+      <c r="DE1" s="7"/>
+      <c r="DF1" s="7"/>
+      <c r="DG1" s="7"/>
+      <c r="DH1" s="7"/>
+      <c r="DI1" s="7"/>
+      <c r="DJ1" s="7"/>
+      <c r="DK1" s="7"/>
+      <c r="DL1" s="7"/>
+      <c r="DM1" s="7"/>
+      <c r="DN1" s="7"/>
+      <c r="DO1" s="7"/>
+      <c r="DP1" s="7"/>
+      <c r="DQ1" s="7"/>
+      <c r="DR1" s="7"/>
+      <c r="DS1" s="7"/>
+      <c r="DT1" s="7"/>
+      <c r="DU1" s="7"/>
+      <c r="DV1" s="7"/>
+      <c r="DW1" s="7"/>
+      <c r="DX1" s="7"/>
+      <c r="DY1" s="7"/>
+      <c r="DZ1" s="7"/>
+      <c r="EA1" s="7"/>
+      <c r="EB1" s="7"/>
+      <c r="EC1" s="7"/>
+      <c r="ED1" s="7"/>
+      <c r="EE1" s="7"/>
+      <c r="EF1" s="7"/>
+      <c r="EG1" s="7"/>
+      <c r="EH1" s="7"/>
+      <c r="EI1" s="7"/>
+      <c r="EJ1" s="7"/>
+      <c r="EK1" s="7"/>
+      <c r="EL1" s="7"/>
+      <c r="EM1" s="7"/>
+      <c r="EN1" s="7"/>
+      <c r="EO1" s="7"/>
+      <c r="EP1" s="7"/>
+      <c r="EQ1" s="7"/>
+      <c r="ER1" s="7"/>
+      <c r="ES1" s="7"/>
+      <c r="ET1" s="7"/>
+      <c r="EU1" s="7"/>
+      <c r="EV1" s="7"/>
+      <c r="EW1" s="7"/>
+      <c r="EX1" s="7"/>
+      <c r="EY1" s="7"/>
+      <c r="EZ1" s="7"/>
+      <c r="FA1" s="7"/>
+      <c r="FB1" s="7"/>
+      <c r="FC1" s="7"/>
+      <c r="FD1" s="7"/>
+      <c r="FE1" s="7"/>
+      <c r="FF1" s="7"/>
+      <c r="FG1" s="7"/>
+      <c r="FH1" s="7"/>
+      <c r="FI1" s="7"/>
+      <c r="FJ1" s="7"/>
+      <c r="FK1" s="7"/>
+      <c r="FL1" s="7"/>
+      <c r="FM1" s="7"/>
+      <c r="FN1" s="7"/>
+      <c r="FO1" s="7"/>
+      <c r="FP1" s="7"/>
+      <c r="FQ1" s="7"/>
+      <c r="FR1" s="7"/>
+      <c r="FS1" s="7"/>
+      <c r="FT1" s="7"/>
+      <c r="FU1" s="7"/>
+      <c r="FV1" s="7"/>
+      <c r="FW1" s="7"/>
+      <c r="FX1" s="7"/>
+      <c r="FY1" s="7"/>
+      <c r="FZ1" s="7"/>
+      <c r="GA1" s="7"/>
+      <c r="GB1" s="7"/>
+      <c r="GC1" s="7"/>
+      <c r="GD1" s="7"/>
+      <c r="GE1" s="7"/>
+      <c r="GF1" s="7"/>
+      <c r="GG1" s="7"/>
+      <c r="GH1" s="7"/>
+      <c r="GI1" s="7"/>
+      <c r="GJ1" s="7"/>
+      <c r="GK1" s="7"/>
+      <c r="GL1" s="7"/>
+    </row>
+    <row r="2" spans="1:194" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:194" s="17" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:194" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J4" s="19" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
-      <c r="BR2" s="7"/>
-      <c r="BS2" s="7"/>
-      <c r="BT2" s="7"/>
-      <c r="BU2" s="7"/>
-      <c r="BV2" s="7"/>
-      <c r="BW2" s="7"/>
-      <c r="BX2" s="7"/>
-      <c r="BY2" s="7"/>
-      <c r="BZ2" s="7"/>
-      <c r="CA2" s="7"/>
-      <c r="CB2" s="7"/>
-      <c r="CC2" s="7"/>
-      <c r="CD2" s="7"/>
-      <c r="CE2" s="7"/>
-      <c r="CF2" s="7"/>
-      <c r="CG2" s="7"/>
-      <c r="CH2" s="7"/>
-      <c r="CI2" s="7"/>
-      <c r="CJ2" s="7"/>
-      <c r="CK2" s="7"/>
-      <c r="CL2" s="7"/>
-      <c r="CM2" s="7"/>
-      <c r="CN2" s="7"/>
-      <c r="CO2" s="7"/>
-      <c r="CP2" s="7"/>
-      <c r="CQ2" s="7"/>
-      <c r="CR2" s="7"/>
-      <c r="CS2" s="7"/>
-      <c r="CT2" s="7"/>
-      <c r="CU2" s="7"/>
-      <c r="CV2" s="7"/>
-      <c r="CW2" s="7"/>
-      <c r="CX2" s="7"/>
-      <c r="CY2" s="7"/>
-      <c r="CZ2" s="7"/>
-      <c r="DA2" s="7"/>
-      <c r="DB2" s="7"/>
-      <c r="DC2" s="7"/>
-      <c r="DD2" s="7"/>
-      <c r="DE2" s="7"/>
-      <c r="DF2" s="7"/>
-      <c r="DG2" s="7"/>
-      <c r="DH2" s="7"/>
-      <c r="DI2" s="7"/>
-      <c r="DJ2" s="7"/>
-      <c r="DK2" s="7"/>
-      <c r="DL2" s="7"/>
-      <c r="DM2" s="7"/>
-      <c r="DN2" s="7"/>
-      <c r="DO2" s="7"/>
-      <c r="DP2" s="7"/>
-      <c r="DQ2" s="7"/>
-      <c r="DR2" s="7"/>
-      <c r="DS2" s="7"/>
-      <c r="DT2" s="7"/>
-      <c r="DU2" s="7"/>
-      <c r="DV2" s="7"/>
-      <c r="DW2" s="7"/>
-      <c r="DX2" s="7"/>
-      <c r="DY2" s="7"/>
-      <c r="DZ2" s="7"/>
-      <c r="EA2" s="7"/>
-      <c r="EB2" s="7"/>
-      <c r="EC2" s="7"/>
-      <c r="ED2" s="7"/>
-      <c r="EE2" s="7"/>
-      <c r="EF2" s="7"/>
-      <c r="EG2" s="7"/>
-      <c r="EH2" s="7"/>
-      <c r="EI2" s="7"/>
-      <c r="EJ2" s="7"/>
-      <c r="EK2" s="7"/>
-      <c r="EL2" s="7"/>
-      <c r="EM2" s="7"/>
-      <c r="EN2" s="7"/>
-      <c r="EO2" s="7"/>
-      <c r="EP2" s="7"/>
-      <c r="EQ2" s="7"/>
-      <c r="ER2" s="7"/>
-      <c r="ES2" s="7"/>
-      <c r="ET2" s="7"/>
-      <c r="EU2" s="7"/>
-      <c r="EV2" s="7"/>
-      <c r="EW2" s="7"/>
-      <c r="EX2" s="7"/>
-      <c r="EY2" s="7"/>
-      <c r="EZ2" s="7"/>
-      <c r="FA2" s="7"/>
-      <c r="FB2" s="7"/>
-      <c r="FC2" s="7"/>
-      <c r="FD2" s="7"/>
-      <c r="FE2" s="7"/>
-      <c r="FF2" s="7"/>
-      <c r="FG2" s="7"/>
-      <c r="FH2" s="7"/>
-      <c r="FI2" s="7"/>
-      <c r="FJ2" s="7"/>
-      <c r="FK2" s="7"/>
-      <c r="FL2" s="7"/>
-      <c r="FM2" s="7"/>
-      <c r="FN2" s="7"/>
-      <c r="FO2" s="7"/>
-      <c r="FP2" s="7"/>
-      <c r="FQ2" s="7"/>
-      <c r="FR2" s="7"/>
-      <c r="FS2" s="7"/>
-      <c r="FT2" s="7"/>
-      <c r="FU2" s="7"/>
-      <c r="FV2" s="7"/>
-      <c r="FW2" s="7"/>
-      <c r="FX2" s="7"/>
-      <c r="FY2" s="7"/>
-      <c r="FZ2" s="7"/>
-      <c r="GA2" s="7"/>
-      <c r="GB2" s="7"/>
-      <c r="GC2" s="7"/>
-      <c r="GD2" s="7"/>
-      <c r="GE2" s="7"/>
-      <c r="GF2" s="7"/>
-      <c r="GG2" s="7"/>
-      <c r="GH2" s="7"/>
-      <c r="GI2" s="7"/>
-      <c r="GJ2" s="7"/>
-      <c r="GK2" s="7"/>
-      <c r="GL2" s="7"/>
-    </row>
-    <row r="3" spans="1:194" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:194" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:194" x14ac:dyDescent="0.25">
@@ -934,10 +978,10 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="I5" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:194" x14ac:dyDescent="0.25">
@@ -948,11 +992,11 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>8</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:194" x14ac:dyDescent="0.25">
@@ -963,14 +1007,14 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:194" x14ac:dyDescent="0.25">
+      <c r="J7" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -979,13 +1023,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="I8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -993,10 +1035,6 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="I9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1006,6 +1044,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1015,8 +1055,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1026,8 +1066,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1037,8 +1077,6 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1562,19 +1600,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,41 @@
   </si>
   <si>
     <t>Incorrect display of the price when changing the currency</t>
+  </si>
+  <si>
+    <t>US004</t>
+  </si>
+  <si>
+    <t>In the drop-down list, the year of birth begins with 1911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти во вкладку Register 
+2. Нажать на поле "Year", появляется выпадающий список
+</t>
+  </si>
+  <si>
+    <t>Выпадающий список начинается 1911 года.</t>
+  </si>
+  <si>
+    <t>Наиболее возможный предельный возраст с 1930 года</t>
+  </si>
+  <si>
+    <t>US005</t>
+  </si>
+  <si>
+    <t>When registering in the "First name" field, numeric values</t>
+  </si>
+  <si>
+    <t>1. Зайти во вкладку Register
+2. В поле First name введено 1111
+3. Остальные обязательные поля заполнены корректно
+4. Register</t>
+  </si>
+  <si>
+    <t>На обязательных полях указана предупреждающая подпись, пояснены причины ошибки</t>
+  </si>
+  <si>
+    <t>Регистрация прошла успешно.</t>
   </si>
 </sst>
 </file>
@@ -664,9 +699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,33 +1004,61 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="10" t="s">
+    <row r="5" spans="1:194" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="I6" s="10" t="s">
+    <row r="6" spans="1:194" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="G6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -164,6 +164,24 @@
   </si>
   <si>
     <t>Регистрация прошла успешно.</t>
+  </si>
+  <si>
+    <t>US006</t>
+  </si>
+  <si>
+    <t>Стоимость First Prize Pies исчисляется в одном экземпляре</t>
+  </si>
+  <si>
+    <t>Стоимость First Prize Pies стонет эквивалентна 10 ти экземплярам</t>
+  </si>
+  <si>
+    <t>When the quantity of goods increases, the total amount does not change</t>
+  </si>
+  <si>
+    <t>1. Зайти в раздел Books
+2. Добавить товар First Prize Pies в корзину
+3.Перейти в корзину
+4. В колонке Qty. Изменить количество на 10 и ввести Update schopping cart</t>
   </si>
 </sst>
 </file>
@@ -699,9 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,18 +1080,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="I7" s="10" t="s">
+    <row r="7" spans="1:194" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="16" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -182,6 +182,22 @@
 2. Добавить товар First Prize Pies в корзину
 3.Перейти в корзину
 4. В колонке Qty. Изменить количество на 10 и ввести Update schopping cart</t>
+  </si>
+  <si>
+    <t>US007</t>
+  </si>
+  <si>
+    <t>1. Зайти во вкладку Register
+2. В поле пароль ввести *</t>
+  </si>
+  <si>
+    <t>Страница обновилась, пороль не принят. Нет описания к требованиям введения пароля</t>
+  </si>
+  <si>
+    <t>Высветились требования введения пароля</t>
+  </si>
+  <si>
+    <t>Rules for entering a password</t>
   </si>
 </sst>
 </file>
@@ -411,12 +427,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -433,6 +443,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,7 +735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +963,7 @@
       <c r="GK1" s="7"/>
       <c r="GL1" s="7"/>
     </row>
-    <row r="2" spans="1:194" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:194" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -963,14 +979,14 @@
       <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:194" s="17" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:194" s="15" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -986,14 +1002,14 @@
       <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:194" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:194" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -1009,20 +1025,20 @@
       <c r="E4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:194" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:194" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
@@ -1044,14 +1060,14 @@
       <c r="G5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:194" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:194" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
@@ -1067,20 +1083,20 @@
       <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:194" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:194" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -1096,31 +1112,45 @@
       <c r="E7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:194" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="I8" s="12" t="s">
+    <row r="8" spans="1:194" s="15" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1139,8 +1169,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1150,8 +1180,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1161,8 +1191,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -198,6 +198,23 @@
   </si>
   <si>
     <t>Rules for entering a password</t>
+  </si>
+  <si>
+    <t>US008</t>
+  </si>
+  <si>
+    <t>1. Добавить товар в корзину
+2. Зайти в Shoping card
+3. Нажать клавишу ''nopCommers''</t>
+  </si>
+  <si>
+    <t>Страница осталась во вкладке Shoping card</t>
+  </si>
+  <si>
+    <t>Переход на главную страницу</t>
+  </si>
+  <si>
+    <t>The button to go to the main page "nopCommers" from the Shopping card page does not work</t>
   </si>
 </sst>
 </file>
@@ -734,8 +751,8 @@
   <dimension ref="A1:GL71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,14 +1169,28 @@
       </c>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+    <row r="9" spans="1:194" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:194" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -215,6 +215,26 @@
   </si>
   <si>
     <t>The button to go to the main page "nopCommers" from the Shopping card page does not work</t>
+  </si>
+  <si>
+    <t>US009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Перейти на главную страницу.
+2. Навести курсор на гиперссылку по категориям Books
+</t>
+  </si>
+  <si>
+    <t>Выделяется другим цветом</t>
+  </si>
+  <si>
+    <t>There is no color highlighting of the hyperlink when hovering over the category with the mouse Books</t>
+  </si>
+  <si>
+    <t>Гиперссылка не выделяется цветом</t>
+  </si>
+  <si>
+    <t>US010</t>
   </si>
 </sst>
 </file>
@@ -409,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,6 +486,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -751,8 +774,8 @@
   <dimension ref="A1:GL71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,19 +1215,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+    <row r="10" spans="1:194" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>US010</t>
+  </si>
+  <si>
+    <t>1. Зайти в категорию</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1248,9 @@
         <v>59</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>minor</t>
-  </si>
-  <si>
-    <t>US001</t>
   </si>
   <si>
     <r>
@@ -237,7 +234,58 @@
     <t>US010</t>
   </si>
   <si>
-    <t>1. Зайти в категорию</t>
+    <t>Произошел переход в категория Books</t>
+  </si>
+  <si>
+    <t>Произошел переход в категорию Gift Cards</t>
+  </si>
+  <si>
+    <t>Выбрать категорию Gift Cards</t>
+  </si>
+  <si>
+    <t>The hyperlink in the Gift Cards category directs a to the Books category</t>
+  </si>
+  <si>
+    <t>US011</t>
+  </si>
+  <si>
+    <t>US012</t>
+  </si>
+  <si>
+    <t>US013</t>
+  </si>
+  <si>
+    <t>US014</t>
+  </si>
+  <si>
+    <t>US015</t>
+  </si>
+  <si>
+    <t>US016</t>
+  </si>
+  <si>
+    <t>US017</t>
+  </si>
+  <si>
+    <t>US018</t>
+  </si>
+  <si>
+    <t>US019</t>
+  </si>
+  <si>
+    <t>US020</t>
+  </si>
+  <si>
+    <t>Page scaling is not observed when viewing the site from an android phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">открыть сайт  https://frontend.nopcommerce.com/ на мобильном телефоне </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Масштаб страницы не соблюден, картинки большого размера </t>
+  </si>
+  <si>
+    <t>Адаптированная верстка сайта</t>
   </si>
 </sst>
 </file>
@@ -287,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -428,11 +476,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -467,9 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -493,6 +564,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,9 +853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GL71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1006,280 +1083,491 @@
       <c r="GK1" s="7"/>
       <c r="GL1" s="7"/>
     </row>
-    <row r="2" spans="1:194" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:194" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7"/>
+      <c r="BZ2" s="7"/>
+      <c r="CA2" s="7"/>
+      <c r="CB2" s="7"/>
+      <c r="CC2" s="7"/>
+      <c r="CD2" s="7"/>
+      <c r="CE2" s="7"/>
+      <c r="CF2" s="7"/>
+      <c r="CG2" s="7"/>
+      <c r="CH2" s="7"/>
+      <c r="CI2" s="7"/>
+      <c r="CJ2" s="7"/>
+      <c r="CK2" s="7"/>
+      <c r="CL2" s="7"/>
+      <c r="CM2" s="7"/>
+      <c r="CN2" s="7"/>
+      <c r="CO2" s="7"/>
+      <c r="CP2" s="7"/>
+      <c r="CQ2" s="7"/>
+      <c r="CR2" s="7"/>
+      <c r="CS2" s="7"/>
+      <c r="CT2" s="7"/>
+      <c r="CU2" s="7"/>
+      <c r="CV2" s="7"/>
+      <c r="CW2" s="7"/>
+      <c r="CX2" s="7"/>
+      <c r="CY2" s="7"/>
+      <c r="CZ2" s="7"/>
+      <c r="DA2" s="7"/>
+      <c r="DB2" s="7"/>
+      <c r="DC2" s="7"/>
+      <c r="DD2" s="7"/>
+      <c r="DE2" s="7"/>
+      <c r="DF2" s="7"/>
+      <c r="DG2" s="7"/>
+      <c r="DH2" s="7"/>
+      <c r="DI2" s="7"/>
+      <c r="DJ2" s="7"/>
+      <c r="DK2" s="7"/>
+      <c r="DL2" s="7"/>
+      <c r="DM2" s="7"/>
+      <c r="DN2" s="7"/>
+      <c r="DO2" s="7"/>
+      <c r="DP2" s="7"/>
+      <c r="DQ2" s="7"/>
+      <c r="DR2" s="7"/>
+      <c r="DS2" s="7"/>
+      <c r="DT2" s="7"/>
+      <c r="DU2" s="7"/>
+      <c r="DV2" s="7"/>
+      <c r="DW2" s="7"/>
+      <c r="DX2" s="7"/>
+      <c r="DY2" s="7"/>
+      <c r="DZ2" s="7"/>
+      <c r="EA2" s="7"/>
+      <c r="EB2" s="7"/>
+      <c r="EC2" s="7"/>
+      <c r="ED2" s="7"/>
+      <c r="EE2" s="7"/>
+      <c r="EF2" s="7"/>
+      <c r="EG2" s="7"/>
+      <c r="EH2" s="7"/>
+      <c r="EI2" s="7"/>
+      <c r="EJ2" s="7"/>
+      <c r="EK2" s="7"/>
+      <c r="EL2" s="7"/>
+      <c r="EM2" s="7"/>
+      <c r="EN2" s="7"/>
+      <c r="EO2" s="7"/>
+      <c r="EP2" s="7"/>
+      <c r="EQ2" s="7"/>
+      <c r="ER2" s="7"/>
+      <c r="ES2" s="7"/>
+      <c r="ET2" s="7"/>
+      <c r="EU2" s="7"/>
+      <c r="EV2" s="7"/>
+      <c r="EW2" s="7"/>
+      <c r="EX2" s="7"/>
+      <c r="EY2" s="7"/>
+      <c r="EZ2" s="7"/>
+      <c r="FA2" s="7"/>
+      <c r="FB2" s="7"/>
+      <c r="FC2" s="7"/>
+      <c r="FD2" s="7"/>
+      <c r="FE2" s="7"/>
+      <c r="FF2" s="7"/>
+      <c r="FG2" s="7"/>
+      <c r="FH2" s="7"/>
+      <c r="FI2" s="7"/>
+      <c r="FJ2" s="7"/>
+      <c r="FK2" s="7"/>
+      <c r="FL2" s="7"/>
+      <c r="FM2" s="7"/>
+      <c r="FN2" s="7"/>
+      <c r="FO2" s="7"/>
+      <c r="FP2" s="7"/>
+      <c r="FQ2" s="7"/>
+      <c r="FR2" s="7"/>
+      <c r="FS2" s="7"/>
+      <c r="FT2" s="7"/>
+      <c r="FU2" s="7"/>
+      <c r="FV2" s="7"/>
+      <c r="FW2" s="7"/>
+      <c r="FX2" s="7"/>
+      <c r="FY2" s="7"/>
+      <c r="FZ2" s="7"/>
+      <c r="GA2" s="7"/>
+      <c r="GB2" s="7"/>
+      <c r="GC2" s="7"/>
+      <c r="GD2" s="7"/>
+      <c r="GE2" s="7"/>
+      <c r="GF2" s="7"/>
+      <c r="GG2" s="7"/>
+      <c r="GH2" s="7"/>
+      <c r="GI2" s="7"/>
+      <c r="GJ2" s="7"/>
+      <c r="GK2" s="7"/>
+      <c r="GL2" s="7"/>
+    </row>
+    <row r="3" spans="1:194" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:194" s="14" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:194" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:194" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:194" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:194" s="15" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="I7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:194" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:194" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="I8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:194" s="14" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:194" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:194" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:194" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:194" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:194" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:194" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:194" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:194" s="15" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:194" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:194" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
     <row r="14" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1288,7 +1576,9 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1297,7 +1587,9 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:194" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1306,7 +1598,9 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1315,7 +1609,9 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1324,7 +1620,9 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1333,7 +1631,9 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1342,7 +1642,9 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +286,23 @@
   </si>
   <si>
     <t>Адаптированная верстка сайта</t>
+  </si>
+  <si>
+    <t>1. Перейти в раздел Jewelry
+2. Нажать на клавишу избранные ( сердечко)
+3. Обновить страницу</t>
+  </si>
+  <si>
+    <t>Добавленный товар не отмечен как избранный</t>
+  </si>
+  <si>
+    <t>Сердечко выделено</t>
+  </si>
+  <si>
+    <t>The added product is not allocated to favorites</t>
+  </si>
+  <si>
+    <t>В корзине вводиться отрицательное колличество товара</t>
   </si>
 </sst>
 </file>
@@ -854,8 +871,8 @@
   <dimension ref="A1:GL71"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,22 +1581,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:194" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:194" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:194" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:194" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -303,6 +303,33 @@
   </si>
   <si>
     <t>В корзине вводиться отрицательное колличество товара</t>
+  </si>
+  <si>
+    <t>Количество принято</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Зайти в раздел Books
+2. Добавить товар First Prize Pies в корзину
+3.Перейти в корзину
+4. В колонке Qty ввести -3 товара
+5. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Принимается только положительное колличество </t>
+  </si>
+  <si>
+    <t>Станица с товаром Build your own computer из категории Featured products не открывается</t>
+  </si>
+  <si>
+    <t>1. Перейти на главную страницу.
+2. Прокрутить экран до категории Featured products
+3. Выбрать товар Build your own computer</t>
+  </si>
+  <si>
+    <t>Страница не открывается</t>
+  </si>
+  <si>
+    <t>Открывается страница с описанием товара Build your own computer</t>
   </si>
 </sst>
 </file>
@@ -872,7 +899,7 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,29 +1631,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:194" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:194" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:194" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:194" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">

--- a/Bug-report.xlsx
+++ b/Bug-report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -302,9 +302,6 @@
     <t>The added product is not allocated to favorites</t>
   </si>
   <si>
-    <t>В корзине вводиться отрицательное колличество товара</t>
-  </si>
-  <si>
     <t>Количество принято</t>
   </si>
   <si>
@@ -330,6 +327,52 @@
   </si>
   <si>
     <t>Открывается страница с описанием товара Build your own computer</t>
+  </si>
+  <si>
+    <t>A negative quantity of goods is entered in the basket</t>
+  </si>
+  <si>
+    <t>1. Прокрутить меню к нижнему футеру. 
+2. в категории Follow us нажать ссылку на переход в Facebook</t>
+  </si>
+  <si>
+    <t>Ссылка перенаправила на главную страницу сайта nopCommerce</t>
+  </si>
+  <si>
+    <t>Переход на Facebook</t>
+  </si>
+  <si>
+    <t>Не работает переход в Facebook в категории Follow us</t>
+  </si>
+  <si>
+    <t>Не работает переход в  в категории Follow us</t>
+  </si>
+  <si>
+    <t>Не работает переход в Twitter в категории Follow us</t>
+  </si>
+  <si>
+    <t>1. Прокрутить меню к нижнему футеру. 
+2. в категории Follow us нажать ссылку на переход в Twitter</t>
+  </si>
+  <si>
+    <t>Переход в  Twitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Переход в </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Прокрутить меню к нижнему футеру. 
+2. в категории Follow us нажать ссылку на переход </t>
+  </si>
+  <si>
+    <t>1. Прокрутить меню к нижнему футеру. 
+2. в категории Follow us нажать ссылку на переход на YouTube</t>
+  </si>
+  <si>
+    <t>Не работает переход в YouTube в категории Follow us</t>
+  </si>
+  <si>
+    <t>Переход на YouTube</t>
   </si>
 </sst>
 </file>
@@ -898,8 +941,8 @@
   <dimension ref="A1:GL71"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,16 +1679,16 @@
         <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>8</v>
@@ -1659,16 +1702,16 @@
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>8</v>
@@ -1677,47 +1720,83 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
